--- a/frontend/assets/personnel-template.xlsx
+++ b/frontend/assets/personnel-template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoBody\Desktop\Development\NodeJsProjects\timShiftApp\frontend\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\NodejsProjects\timShiftApp\frontend\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4864ECE0-8894-40B6-BFD2-B1C395AE02E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -182,12 +181,30 @@
   </si>
   <si>
     <t>YOK</t>
+  </si>
+  <si>
+    <t>registry</t>
+  </si>
+  <si>
+    <t>hasDisability</t>
+  </si>
+  <si>
+    <t>militaryStatus</t>
+  </si>
+  <si>
+    <t>HAYIR</t>
+  </si>
+  <si>
+    <t>MUAF</t>
+  </si>
+  <si>
+    <t>YAPTI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,23 +355,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -390,23 +390,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,16 +565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,187 +582,214 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>5151</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>53</v>
       </c>
-      <c r="I2">
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>39</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>41</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>48</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>42</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>49</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>5152</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>53</v>
       </c>
-      <c r="I3">
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>40</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>42</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>44</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>46</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>45</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>38</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>50</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>52</v>
       </c>
     </row>
